--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\Backup\CARES---Selenium-Automation-master04Oct\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9132159B-0580-457D-BDE1-D36CC43059CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B82D68D-F3CD-4D37-B239-78F221572B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="28" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="420">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1846,7 +1846,7 @@
   <dimension ref="A1:BC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2864,7 +2864,9 @@
       <c r="A9" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
       <c r="C9" s="11">
         <v>1</v>
       </c>
@@ -3082,10 +3084,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8071B64A-FB0C-4BAD-9360-02F6FE76855A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3132,6 +3134,11 @@
         <v>36</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3142,7 +3149,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5501,8 +5508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8180,10 +8187,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B325D6-7B6C-4884-BEE4-C1CE0BF921AC}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8345,6 +8352,65 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8355,8 +8421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253EC1A4-7B9E-46C2-80DA-365E128C507F}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8977,6 +9043,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9193,16 +9269,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
@@ -9212,6 +9278,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9228,14 +9304,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\CARES---Selenium-Automation-master (1)\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B82D68D-F3CD-4D37-B239-78F221572B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42F3031-D280-4C9F-9A6D-42930960657F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="19" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="500" yWindow="140" windowWidth="14400" windowHeight="9920" firstSheet="4" activeTab="7" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="ServicesCategory" sheetId="28" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="420">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -5508,7 +5508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -8588,8 +8588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E7B595-60B6-4DEB-A852-BDC0DE1D0A08}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8931,11 +8931,14 @@
       <c r="P5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>99</v>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -9043,16 +9046,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9269,6 +9262,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
@@ -9278,16 +9281,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9304,4 +9297,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\CARES---Selenium-Automation-master\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120079E6-51E8-46DA-A5BD-11DA731066BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DCF4BB-B9BE-4DB6-ACFC-F8EEB231B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="415">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1304,6 +1304,9 @@
   </si>
   <si>
     <t>REASSIGN_BTN</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1861,9 +1864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2896,7 +2899,9 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
+      <c r="AP8" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
@@ -3023,7 +3028,9 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
+      <c r="AP9" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
@@ -3170,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3615,8 +3622,14 @@
       <c r="G16" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>170</v>
       </c>
@@ -3638,8 +3651,14 @@
       <c r="G17" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>170</v>
       </c>
@@ -3661,8 +3680,14 @@
       <c r="G18" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
@@ -3684,9 +3709,16 @@
       <c r="G19" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="I19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3694,8 +3726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3711,6 +3743,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -9164,25 +9199,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9399,10 +9415,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9425,20 +9471,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DCF4BB-B9BE-4DB6-ACFC-F8EEB231B942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070389EF-16A6-46D7-8280-353BC59B989A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="415">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1864,9 +1864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP9" sqref="AP9"/>
+      <selection pane="topRight" activeCell="AQ10" sqref="AQ10:AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2902,8 +2902,12 @@
       <c r="AP8" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
+      <c r="AQ8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR8" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
@@ -3031,8 +3035,12 @@
       <c r="AP9" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
+      <c r="AQ9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR9" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
@@ -3152,8 +3160,12 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
+      <c r="AQ10" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR10" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
@@ -3177,7 +3189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -9199,6 +9211,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9415,16 +9437,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9435,6 +9447,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9453,23 +9482,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070389EF-16A6-46D7-8280-353BC59B989A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C6C378-2A4C-4BCB-9630-A874CE085034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -1864,9 +1864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ10" sqref="AQ10:AR10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3189,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9211,16 +9211,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9437,6 +9427,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9447,23 +9447,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9482,6 +9465,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C6C378-2A4C-4BCB-9630-A874CE085034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C9EB7B-1F57-43EC-B17D-ED7F6DA4EA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -1866,7 +1866,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ11" sqref="AQ11"/>
+      <selection pane="topRight" activeCell="AR8" sqref="AR8:AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2906,7 +2906,7 @@
         <v>151</v>
       </c>
       <c r="AR8" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
@@ -3039,7 +3039,7 @@
         <v>151</v>
       </c>
       <c r="AR9" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
@@ -3164,7 +3164,7 @@
         <v>151</v>
       </c>
       <c r="AR10" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
@@ -3189,7 +3189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C9EB7B-1F57-43EC-B17D-ED7F6DA4EA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A021A6-451E-46BD-AB45-F9D69BECB5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="413">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -574,9 +574,6 @@
     <t>Alleged Victim</t>
   </si>
   <si>
-    <t>test2928</t>
-  </si>
-  <si>
     <t>VALIDATEPERSON_TAB</t>
   </si>
   <si>
@@ -1045,12 +1042,6 @@
     <t>Continue to Inquire</t>
   </si>
   <si>
-    <t>person3</t>
-  </si>
-  <si>
-    <t>person4</t>
-  </si>
-  <si>
     <t>CONTACT_START_DATETIME</t>
   </si>
   <si>
@@ -1307,6 +1298,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Prevention Services Request</t>
   </si>
 </sst>
 </file>
@@ -1377,12 +1371,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1398,7 +1398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1417,6 +1417,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1864,9 +1869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR8" sqref="AR8:AR10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2450,244 +2455,244 @@
       </c>
     </row>
     <row r="5" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="P5" s="8" t="s">
+      <c r="H5" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA5" s="8" t="s">
+      <c r="Q5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA5" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="AB5" s="8" t="s">
+      <c r="AB5" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="AC5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD5" s="8" t="s">
+      <c r="AC5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="AE5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF5" s="8" t="s">
+      <c r="AE5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AG5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8" t="s">
+      <c r="AG5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="AR5" s="8" t="s">
+      <c r="AR5" s="16" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" s="8" t="s">
+      <c r="H6" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA6" s="8" t="s">
+      <c r="Q6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA6" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AB6" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="AC6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD6" s="8" t="s">
+      <c r="AC6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD6" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="AE6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF6" s="8" t="s">
+      <c r="AE6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AG6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8" t="s">
+      <c r="AG6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="AR6" s="8" t="s">
+      <c r="AR6" s="16" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2900,7 +2905,7 @@
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AQ8" s="8" t="s">
         <v>151</v>
@@ -3033,7 +3038,7 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AQ9" s="8" t="s">
         <v>151</v>
@@ -3189,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3293,98 +3298,130 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
+      <c r="G5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
+      <c r="G6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
+      <c r="G7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3614,7 +3651,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -3643,7 +3680,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -3672,7 +3709,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -3701,7 +3738,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -3739,7 +3776,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3765,22 +3802,22 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>172</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>174</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>175</v>
-      </c>
-      <c r="I1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3798,7 +3835,7 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
         <v>47</v>
@@ -3809,76 +3846,78 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3890,7 +3929,7 @@
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
@@ -3914,7 +3953,7 @@
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G7" t="s">
         <v>47</v>
@@ -3938,7 +3977,7 @@
         <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -3962,7 +4001,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
@@ -3986,7 +4025,7 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10" t="s">
         <v>47</v>
@@ -4005,13 +4044,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618CF03-4E29-46EE-96C4-337D979CF9BF}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -4022,7 +4062,7 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
         <v>125</v>
@@ -4037,58 +4077,58 @@
         <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>97</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>133</v>
       </c>
       <c r="N1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" t="s">
         <v>183</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>184</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>186</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>187</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1" t="s">
         <v>188</v>
       </c>
-      <c r="T1" t="s">
-        <v>188</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>189</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>190</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>191</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>192</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>193</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>194</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>195</v>
       </c>
       <c r="AB1" t="s">
         <v>87</v>
@@ -4097,19 +4137,19 @@
         <v>91</v>
       </c>
       <c r="AD1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE1" t="s">
         <v>196</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>197</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>198</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>199</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>200</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>141</v>
@@ -4159,7 +4199,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
@@ -4169,7 +4209,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -4203,9 +4243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E851206E-AC4E-4CF1-94D4-17FBA19B33FA}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4224,6 +4262,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -4234,82 +4275,82 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
         <v>203</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>204</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>205</v>
-      </c>
-      <c r="H1" t="s">
-        <v>206</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" t="s">
         <v>207</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>208</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>83</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>87</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="AD1" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -4320,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -4365,22 +4406,22 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" t="s">
         <v>225</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>226</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>227</v>
-      </c>
-      <c r="H1" t="s">
-        <v>228</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -4391,10 +4432,10 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" t="s">
         <v>230</v>
-      </c>
-      <c r="F2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -4407,10 +4448,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" t="s">
         <v>230</v>
-      </c>
-      <c r="F3" t="s">
-        <v>231</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -4469,46 +4510,46 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
       </c>
       <c r="G1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>87</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -4519,12 +4560,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4544,7 +4585,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4632,178 +4673,178 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H1" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>83</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>87</v>
       </c>
       <c r="AL1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI1" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="BH1" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="BJ1" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -4924,7 +4965,7 @@
   <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4940,130 +4981,130 @@
         <v>11</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="AC1" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AQ1" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="AR1" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT1" s="8" t="s">
         <v>141</v>
@@ -5087,16 +5128,16 @@
         <v>45</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>145</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>21</v>
@@ -5105,13 +5146,13 @@
         <v>45</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>45</v>
@@ -5150,166 +5191,170 @@
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="K3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="J4" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="L4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="N4" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O4" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8"/>
-      <c r="AQ3" s="8"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8" t="s">
+      <c r="P4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5331,16 +5376,16 @@
         <v>45</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>145</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>21</v>
@@ -5349,13 +5394,13 @@
         <v>45</v>
       </c>
       <c r="M5" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>45</v>
@@ -5411,16 +5456,16 @@
         <v>45</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>322</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>145</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>21</v>
@@ -5429,13 +5474,13 @@
         <v>45</v>
       </c>
       <c r="M6" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>326</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>45</v>
@@ -5574,94 +5619,94 @@
         <v>24</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>287</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>290</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="AF1" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>141</v>
@@ -5677,19 +5722,19 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>21</v>
@@ -5698,10 +5743,10 @@
         <v>145</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -5742,19 +5787,19 @@
         <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
@@ -5763,76 +5808,76 @@
         <v>145</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -5849,19 +5894,19 @@
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
@@ -5870,76 +5915,76 @@
         <v>145</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -6732,8 +6777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A5E2BF-1ACE-43E6-8D8F-5F0251FCAA4A}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6762,109 +6807,109 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" t="s">
         <v>338</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>339</v>
-      </c>
-      <c r="F1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" t="s">
-        <v>342</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="G2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="19">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="G3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -6915,7 +6960,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6947,49 +6992,49 @@
         <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7027,36 +7072,52 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7" t="s">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="19" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7074,7 +7135,7 @@
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>47</v>
@@ -7106,7 +7167,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>47</v>
@@ -7175,58 +7236,58 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" t="s">
         <v>361</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>362</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>363</v>
       </c>
-      <c r="I1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>364</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>365</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>366</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q1" t="s">
         <v>367</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>368</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>369</v>
       </c>
-      <c r="P1" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>370</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>371</v>
-      </c>
-      <c r="S1" t="s">
-        <v>372</v>
-      </c>
-      <c r="T1" t="s">
-        <v>373</v>
-      </c>
-      <c r="U1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7277,7 +7338,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7308,61 +7369,93 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G1" t="s">
         <v>375</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" t="s">
         <v>376</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>377</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>378</v>
       </c>
-      <c r="H1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>379</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>380</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>381</v>
-      </c>
-      <c r="L1" t="s">
-        <v>382</v>
-      </c>
-      <c r="M1" t="s">
-        <v>383</v>
-      </c>
-      <c r="N1" t="s">
-        <v>384</v>
       </c>
       <c r="O1" t="s">
         <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7379,7 +7472,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G3" t="s">
         <v>144</v>
@@ -7426,7 +7519,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G4" t="s">
         <v>144</v>
@@ -7488,7 +7581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C3F614-783A-4C4F-9E94-A1C236065EAF}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7507,173 +7602,178 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" t="s">
         <v>387</v>
-      </c>
-      <c r="E1" t="s">
-        <v>388</v>
-      </c>
-      <c r="F1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G1" t="s">
-        <v>390</v>
       </c>
       <c r="H1" t="s">
         <v>107</v>
       </c>
       <c r="I1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L1" t="s">
         <v>391</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>392</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P1" t="s">
         <v>393</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>394</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>395</v>
       </c>
-      <c r="N1" t="s">
-        <v>225</v>
-      </c>
-      <c r="O1" t="s">
-        <v>226</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>396</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>397</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="S1" t="s">
+      <c r="F2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="19">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="T1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>402</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="F3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7710,7 +7810,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>141</v>
@@ -7736,7 +7836,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -7753,7 +7853,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -7770,7 +7870,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -7787,7 +7887,7 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -7804,7 +7904,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7842,22 +7942,22 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -7968,19 +8068,19 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H1" t="s">
         <v>410</v>
-      </c>
-      <c r="F1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -8037,13 +8137,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
@@ -9211,6 +9311,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9427,16 +9537,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9447,6 +9547,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9465,23 +9582,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A021A6-451E-46BD-AB45-F9D69BECB5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9851D6C5-B305-4433-B351-5C7874ED8E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="9" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="413">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1869,7 +1869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:BC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
@@ -3194,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3671,6 +3671,9 @@
       <c r="G16" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="H16" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="I16" s="8" t="s">
         <v>48</v>
       </c>
@@ -3700,6 +3703,9 @@
       <c r="G17" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="H17" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="I17" s="8" t="s">
         <v>48</v>
       </c>
@@ -3729,6 +3735,9 @@
       <c r="G18" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="H18" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="I18" s="8" t="s">
         <v>48</v>
       </c>
@@ -3757,6 +3766,9 @@
       </c>
       <c r="G19" s="8" t="s">
         <v>47</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>48</v>
@@ -9311,16 +9323,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9537,6 +9539,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9547,23 +9559,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9582,6 +9577,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9851D6C5-B305-4433-B351-5C7874ED8E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C8C1AA-7BFF-4E47-846A-E0D005B33F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="10" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="17" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="414">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1301,6 +1301,9 @@
   </si>
   <si>
     <t>Prevention Services Request</t>
+  </si>
+  <si>
+    <t>TRIBAL_NEW_BTN</t>
   </si>
 </sst>
 </file>
@@ -3194,7 +3197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -4974,15 +4977,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AU25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AU6" sqref="AU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4996,133 +4999,136 @@
         <v>283</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -5133,43 +5139,43 @@
       <c r="D2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="M2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
@@ -5198,11 +5204,12 @@
       <c r="AQ2" s="8"/>
       <c r="AR2" s="8"/>
       <c r="AS2" s="8"/>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
@@ -5215,46 +5222,46 @@
       <c r="D3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="E3" s="16"/>
       <c r="F3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="M3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="P3" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="Q3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
@@ -5282,11 +5289,12 @@
       <c r="AQ3" s="16"/>
       <c r="AR3" s="16"/>
       <c r="AS3" s="16"/>
-      <c r="AT3" s="16" t="s">
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
@@ -5299,52 +5307,52 @@
       <c r="D4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="E4" s="16"/>
       <c r="F4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="M4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="O4" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="P4" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="P4" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="Q4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="17"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
@@ -5366,11 +5374,12 @@
       <c r="AQ4" s="16"/>
       <c r="AR4" s="16"/>
       <c r="AS4" s="16"/>
-      <c r="AT4" s="16" t="s">
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -5381,50 +5390,50 @@
       <c r="D5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="M5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="8"/>
+      <c r="Q5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="6"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="5"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
@@ -5446,125 +5455,134 @@
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8"/>
       <c r="AS5" s="8"/>
-      <c r="AT5" s="8" t="s">
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
       <c r="D6" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="M6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="P6" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="Q6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="10"/>
+        <v>45</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="11"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="12"/>
       <c r="Y6" s="10"/>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="W7" s="6"/>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="W9" s="6"/>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="W10" s="6"/>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="23:23" x14ac:dyDescent="0.35">
-      <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="23:23" x14ac:dyDescent="0.35">
-      <c r="W18" s="6"/>
-    </row>
-    <row r="19" spans="23:23" x14ac:dyDescent="0.35">
-      <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="23:23" x14ac:dyDescent="0.35">
-      <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="23:23" x14ac:dyDescent="0.35">
-      <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="23:23" x14ac:dyDescent="0.35">
-      <c r="W22" s="6"/>
-    </row>
-    <row r="23" spans="23:23" x14ac:dyDescent="0.35">
-      <c r="W23" s="6"/>
-    </row>
-    <row r="24" spans="23:23" x14ac:dyDescent="0.35">
-      <c r="W24" s="6"/>
-    </row>
-    <row r="25" spans="23:23" x14ac:dyDescent="0.35">
-      <c r="W25" s="6"/>
+      <c r="Z6" s="10"/>
+      <c r="AU6" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X18" s="6"/>
+    </row>
+    <row r="19" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X19" s="6"/>
+    </row>
+    <row r="20" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X21" s="6"/>
+    </row>
+    <row r="22" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="24:24" x14ac:dyDescent="0.35">
+      <c r="X25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9323,6 +9341,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -9539,16 +9567,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9559,6 +9577,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9577,23 +9612,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB23B1AA-0565-4D7B-BB04-077F452E47F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099447A4-9120-488B-8F02-D79195353381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="22" activeTab="25" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -36,10 +36,11 @@
     <sheet name="Documents" sheetId="21" r:id="rId21"/>
     <sheet name="ScreeningCrossReports" sheetId="19" r:id="rId22"/>
     <sheet name="ApprovalAuditHistory" sheetId="18" r:id="rId23"/>
-    <sheet name="ScreeningHistory" sheetId="23" r:id="rId24"/>
-    <sheet name="ScreeningERR" sheetId="27" r:id="rId25"/>
-    <sheet name="ScreeningSubmitForApproval" sheetId="12" r:id="rId26"/>
-    <sheet name="ScreeningApproval" sheetId="15" r:id="rId27"/>
+    <sheet name="RecallAndResubmitRecord" sheetId="32" r:id="rId24"/>
+    <sheet name="ScreeningHistory" sheetId="23" r:id="rId25"/>
+    <sheet name="ScreeningERR" sheetId="27" r:id="rId26"/>
+    <sheet name="ScreeningSubmitForApproval" sheetId="12" r:id="rId27"/>
+    <sheet name="ScreeningApproval" sheetId="15" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="475">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -721,12 +722,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>VALIDATEPERSON_TAB</t>
+  </si>
+  <si>
     <t>SEARCH_BTN</t>
   </si>
   <si>
+    <t>SEXATBIRTH</t>
+  </si>
+  <si>
     <t>NEWPERSON_BTN</t>
   </si>
   <si>
+    <t>VALIDATEPERSON_NAME</t>
+  </si>
+  <si>
+    <t>SCR_PERSON_ID</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -1459,13 +1472,19 @@
     <t>pomTest</t>
   </si>
   <si>
-    <t>INDEX</t>
-  </si>
-  <si>
-    <t>VALIDATE_PERSON</t>
-  </si>
-  <si>
-    <t>SEX_AT_BIRTH</t>
+    <t>RECALL</t>
+  </si>
+  <si>
+    <t>SUBMIT_FOR_APPROVAL</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>autotext</t>
   </si>
   <si>
     <t>GENDER_IDENTITY</t>
@@ -1587,7 +1606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1612,15 +1631,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2061,7 +2071,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2079,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C20A7DF-5642-453E-A14D-2D34E362E2F9}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2756,26 +2766,27 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2785,351 +2796,342 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>465</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>466</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="H1" t="s">
-        <v>468</v>
+        <v>222</v>
       </c>
       <c r="I1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+      <c r="J1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22">
-        <v>1</v>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" t="s">
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22">
-        <v>2</v>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" t="s">
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22">
-        <v>1</v>
-      </c>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22">
-        <v>3</v>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" t="s">
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H4" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22">
-        <v>1</v>
-      </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22">
-        <v>4</v>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" t="s">
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H5" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="23">
-        <v>1</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23"/>
+        <v>226</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" t="s">
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24">
-        <v>1</v>
-      </c>
-      <c r="C7" s="24">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="21" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="24">
-        <v>1</v>
-      </c>
-      <c r="C8" s="24">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="21" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="23">
-        <v>1</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="D9" s="23"/>
+        <v>226</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
       <c r="E9" t="s">
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22">
-        <v>1</v>
-      </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22"/>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" t="s">
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="22">
-        <v>1</v>
-      </c>
-      <c r="C11" s="22">
-        <v>1</v>
-      </c>
-      <c r="D11" s="22"/>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" t="s">
         <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H11" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="22">
-        <v>1</v>
-      </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22"/>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" t="s">
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H12" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="22">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22"/>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" t="s">
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
@@ -3165,7 +3167,7 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
         <v>111</v>
@@ -3180,31 +3182,31 @@
         <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>112</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="R1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="S1" t="s">
         <v>174</v>
@@ -3222,16 +3224,16 @@
         <v>134</v>
       </c>
       <c r="X1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Y1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Z1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AA1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AB1" t="s">
         <v>87</v>
@@ -3240,19 +3242,19 @@
         <v>91</v>
       </c>
       <c r="AD1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AE1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AF1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AG1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AH1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>181</v>
@@ -3308,7 +3310,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
@@ -3318,7 +3320,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -3384,82 +3386,82 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>83</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>87</v>
       </c>
       <c r="Y1" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -3470,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -3515,22 +3517,22 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3541,10 +3543,10 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3557,10 +3559,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -3619,46 +3621,46 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>87</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -3669,12 +3671,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3694,7 +3696,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3782,178 +3784,178 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H1" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>83</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="W1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="AH1" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>87</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -4090,160 +4092,160 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>181</v>
       </c>
       <c r="AU1" s="12" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AV1" s="11" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AW1" s="12" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AX1" s="12" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AY1" s="11" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AZ1" s="12" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BA1" s="12" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="BB1" s="11" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="BC1" s="12" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.35">
@@ -4264,16 +4266,16 @@
         <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>186</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>21</v>
@@ -4282,13 +4284,13 @@
         <v>45</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>45</v>
@@ -4367,16 +4369,16 @@
         <v>183</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>186</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>21</v>
@@ -4385,13 +4387,13 @@
         <v>45</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>45</v>
@@ -4472,16 +4474,16 @@
         <v>183</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>186</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>21</v>
@@ -4490,13 +4492,13 @@
         <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>45</v>
@@ -4575,16 +4577,16 @@
         <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>186</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>21</v>
@@ -4593,13 +4595,13 @@
         <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>45</v>
@@ -4681,16 +4683,16 @@
         <v>183</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>186</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -4699,13 +4701,13 @@
         <v>45</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>45</v>
@@ -5818,8 +5820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5857,7 +5859,6 @@
     <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
@@ -5874,94 +5875,94 @@
         <v>24</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P1" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>181</v>
@@ -5977,19 +5978,19 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>183</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>21</v>
@@ -5998,10 +5999,10 @@
         <v>186</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -6029,107 +6030,107 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>385</v>
+      <c r="L3" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>192</v>
@@ -6149,19 +6150,19 @@
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>183</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
@@ -6170,92 +6171,118 @@
         <v>186</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="F5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="5"/>
@@ -6799,6 +6826,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7024,7 +7052,7 @@
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -7052,7 +7080,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7081,25 +7109,25 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>181</v>
@@ -7122,7 +7150,7 @@
         <v>47</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>45</v>
@@ -7160,7 +7188,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>45</v>
@@ -7196,7 +7224,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -7217,10 +7245,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G5" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>22</v>
@@ -7268,49 +7296,49 @@
         <v>11</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7361,7 +7389,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>47</v>
@@ -7411,7 +7439,7 @@
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>47</v>
@@ -7443,7 +7471,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>47</v>
@@ -7512,58 +7540,58 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="I1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="O1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="R1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="S1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="T1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="U1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7614,7 +7642,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7645,43 +7673,43 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="J1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="N1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="O1" t="s">
         <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7748,7 +7776,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G3" t="s">
         <v>185</v>
@@ -7795,7 +7823,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G4" t="s">
         <v>185</v>
@@ -7849,7 +7877,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -7864,47 +7892,124 @@
       <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>436</v>
+      <c r="F6" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="G6" t="s">
         <v>185</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="M6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B353378-4708-4C7F-B9B9-BC17005FE96A}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="28.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C3F614-783A-4C4F-9E94-A1C236065EAF}">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -7929,55 +8034,55 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H1" t="s">
         <v>94</v>
       </c>
       <c r="I1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="J1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="N1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="O1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="R1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="S1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="T1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -7994,7 +8099,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>45</v>
@@ -8056,7 +8161,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>45</v>
@@ -8109,12 +8214,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8137,7 +8242,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>181</v>
@@ -8163,7 +8268,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8180,7 +8285,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8197,7 +8302,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8214,7 +8319,7 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -8231,7 +8336,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -8239,7 +8344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC72FDD-8451-49D7-B355-8912A0898E83}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -8269,22 +8374,22 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8364,12 +8469,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DB3AB3-D27A-4BA9-A824-77A7DA34AD5A}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8395,19 +8500,19 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -8464,16 +8569,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -8590,8 +8701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC6D06-F121-4D11-ACA2-226F1B1BAB15}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D21" sqref="D20:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8881,7 +8992,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9560,7 +9671,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11801,25 +11912,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12036,25 +12128,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12071,4 +12164,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099447A4-9120-488B-8F02-D79195353381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA3ADD5-77B9-4327-AD2F-2CC212EBDDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="22" activeTab="25" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="479">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -737,9 +737,6 @@
     <t>VALIDATEPERSON_NAME</t>
   </si>
   <si>
-    <t>SCR_PERSON_ID</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -1488,6 +1485,21 @@
   </si>
   <si>
     <t>GENDER_IDENTITY</t>
+  </si>
+  <si>
+    <t>SCP_PERSON_ID</t>
+  </si>
+  <si>
+    <t>SCP_ID1</t>
+  </si>
+  <si>
+    <t>SCP_ID2</t>
+  </si>
+  <si>
+    <t>SCP_ID3</t>
+  </si>
+  <si>
+    <t>SCP_ID4</t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2083,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2768,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2805,7 +2817,7 @@
         <v>221</v>
       </c>
       <c r="G1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1" t="s">
         <v>222</v>
@@ -2814,7 +2826,7 @@
         <v>223</v>
       </c>
       <c r="J1" t="s">
-        <v>224</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2832,16 +2844,19 @@
         <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
         <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2859,16 +2874,19 @@
         <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" t="s">
         <v>47</v>
       </c>
       <c r="I3" t="s">
         <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2886,16 +2904,19 @@
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
         <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2913,21 +2934,24 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H5" t="s">
         <v>47</v>
       </c>
       <c r="I5" t="s">
         <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2939,10 +2963,10 @@
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
         <v>47</v>
@@ -2965,10 +2989,10 @@
         <v>47</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H7" t="s">
         <v>47</v>
@@ -2991,10 +3015,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
         <v>47</v>
@@ -3005,7 +3029,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3017,10 +3041,10 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H9" t="s">
         <v>47</v>
@@ -3044,10 +3068,10 @@
         <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
         <v>47</v>
@@ -3071,10 +3095,10 @@
         <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H11" t="s">
         <v>47</v>
@@ -3098,10 +3122,10 @@
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" t="s">
         <v>47</v>
@@ -3125,10 +3149,10 @@
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H13" t="s">
         <v>47</v>
@@ -3167,7 +3191,7 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
         <v>111</v>
@@ -3182,31 +3206,31 @@
         <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>112</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="N1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" t="s">
         <v>231</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>232</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>234</v>
-      </c>
-      <c r="R1" t="s">
-        <v>235</v>
       </c>
       <c r="S1" t="s">
         <v>174</v>
@@ -3224,16 +3248,16 @@
         <v>134</v>
       </c>
       <c r="X1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y1" t="s">
         <v>236</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>237</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>238</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>239</v>
       </c>
       <c r="AB1" t="s">
         <v>87</v>
@@ -3242,19 +3266,19 @@
         <v>91</v>
       </c>
       <c r="AD1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE1" t="s">
         <v>240</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>241</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>242</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>243</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>244</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>181</v>
@@ -3310,7 +3334,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>30</v>
@@ -3320,7 +3344,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -3386,82 +3410,82 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" t="s">
         <v>247</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>248</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>249</v>
-      </c>
-      <c r="H1" t="s">
-        <v>250</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K1" t="s">
         <v>251</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>252</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>83</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>87</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="AD1" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -3472,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -3517,22 +3541,22 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" t="s">
         <v>269</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>270</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>271</v>
-      </c>
-      <c r="H1" t="s">
-        <v>272</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -3543,10 +3567,10 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" t="s">
         <v>274</v>
-      </c>
-      <c r="F2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3559,10 +3583,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" t="s">
         <v>274</v>
-      </c>
-      <c r="F3" t="s">
-        <v>275</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -3621,46 +3645,46 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
       </c>
       <c r="G1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>87</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>265</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -3671,12 +3695,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3696,7 +3720,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3784,178 +3808,178 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H1" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>83</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="W1" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="AF1" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="AJ1" s="6" t="s">
         <v>87</v>
       </c>
       <c r="AL1" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BF1" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="BI1" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="BH1" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>327</v>
-      </c>
       <c r="BJ1" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -4092,160 +4116,160 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="AC1" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AO1" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AP1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="AQ1" s="11" t="s">
-        <v>365</v>
-      </c>
       <c r="AR1" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>181</v>
       </c>
       <c r="AU1" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AV1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AW1" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AY1" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BB1" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BC1" s="12" t="s">
         <v>373</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.35">
@@ -4266,16 +4290,16 @@
         <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>186</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>21</v>
@@ -4284,13 +4308,13 @@
         <v>45</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>45</v>
@@ -4369,16 +4393,16 @@
         <v>183</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>186</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>21</v>
@@ -4387,13 +4411,13 @@
         <v>45</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>45</v>
@@ -4474,16 +4498,16 @@
         <v>183</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>186</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>21</v>
@@ -4492,13 +4516,13 @@
         <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>45</v>
@@ -4577,16 +4601,16 @@
         <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>186</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>21</v>
@@ -4595,13 +4619,13 @@
         <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>45</v>
@@ -4683,16 +4707,16 @@
         <v>183</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>376</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>186</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>21</v>
@@ -4701,13 +4725,13 @@
         <v>45</v>
       </c>
       <c r="N6" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>45</v>
@@ -5875,94 +5899,94 @@
         <v>24</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="G1" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>335</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W1" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>385</v>
-      </c>
       <c r="AB1" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="AD1" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>265</v>
-      </c>
       <c r="AF1" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>181</v>
@@ -5978,19 +6002,19 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>375</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>376</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>183</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>387</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>21</v>
@@ -5999,10 +6023,10 @@
         <v>186</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -6043,19 +6067,19 @@
         <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>183</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>21</v>
@@ -6064,73 +6088,73 @@
         <v>186</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>389</v>
-      </c>
       <c r="Q3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AI3" s="8" t="s">
         <v>192</v>
@@ -6150,19 +6174,19 @@
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>183</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
@@ -6171,76 +6195,76 @@
         <v>186</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -6257,19 +6281,19 @@
         <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>183</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
@@ -6278,10 +6302,10 @@
         <v>186</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -7052,7 +7076,7 @@
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -7109,25 +7133,25 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" t="s">
         <v>390</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>391</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>392</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>393</v>
-      </c>
-      <c r="H1" t="s">
-        <v>394</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>181</v>
@@ -7150,7 +7174,7 @@
         <v>47</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>45</v>
@@ -7188,7 +7212,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>45</v>
@@ -7224,7 +7248,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -7245,10 +7269,10 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G5" t="s">
         <v>396</v>
-      </c>
-      <c r="G5" t="s">
-        <v>397</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>22</v>
@@ -7296,49 +7320,49 @@
         <v>11</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -7389,7 +7413,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>47</v>
@@ -7439,7 +7463,7 @@
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>47</v>
@@ -7471,7 +7495,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>47</v>
@@ -7540,58 +7564,58 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" t="s">
         <v>415</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>416</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" t="s">
         <v>417</v>
       </c>
-      <c r="I1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>418</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>419</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>420</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>421</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>422</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q1" t="s">
         <v>423</v>
       </c>
-      <c r="P1" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>424</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>425</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>426</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>427</v>
-      </c>
-      <c r="U1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7673,43 +7697,43 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E1" t="s">
         <v>429</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>430</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>431</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" t="s">
         <v>432</v>
       </c>
-      <c r="H1" t="s">
-        <v>298</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>433</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>434</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>435</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>436</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>437</v>
-      </c>
-      <c r="N1" t="s">
-        <v>438</v>
       </c>
       <c r="O1" t="s">
         <v>83</v>
       </c>
       <c r="P1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7776,7 +7800,7 @@
         <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G3" t="s">
         <v>185</v>
@@ -7823,7 +7847,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G4" t="s">
         <v>185</v>
@@ -7893,7 +7917,7 @@
         <v>47</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G6" t="s">
         <v>185</v>
@@ -7957,22 +7981,22 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1" t="s">
         <v>469</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>470</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>471</v>
       </c>
-      <c r="H1" t="s">
-        <v>472</v>
-      </c>
       <c r="I1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8001,7 +8025,7 @@
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -8034,55 +8058,55 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1" t="s">
         <v>441</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>442</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>443</v>
-      </c>
-      <c r="G1" t="s">
-        <v>444</v>
       </c>
       <c r="H1" t="s">
         <v>94</v>
       </c>
       <c r="I1" t="s">
+        <v>444</v>
+      </c>
+      <c r="J1" t="s">
         <v>445</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>446</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>447</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>448</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P1" t="s">
         <v>449</v>
       </c>
-      <c r="N1" t="s">
-        <v>269</v>
-      </c>
-      <c r="O1" t="s">
-        <v>270</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>450</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>451</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>452</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>453</v>
-      </c>
-      <c r="T1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -8099,7 +8123,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>45</v>
@@ -8161,7 +8185,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>45</v>
@@ -8218,7 +8242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA210A3F-5C32-4AAB-A7AC-CFC520D5E0D1}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -8242,7 +8266,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>181</v>
@@ -8268,7 +8292,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8285,7 +8309,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8302,7 +8326,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8319,7 +8343,7 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -8336,7 +8360,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -8374,22 +8398,22 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8500,19 +8524,19 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
         <v>464</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>465</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>466</v>
-      </c>
-      <c r="H1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -11912,6 +11936,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -12128,26 +12171,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12164,22 +12206,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA3ADD5-77B9-4327-AD2F-2CC212EBDDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29415E7A-DB59-4C23-ADFF-6470EA012191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="479">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A20"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2780,7 +2780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AD1192-4D39-46C1-8B90-7A5AD27398F4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
@@ -5845,7 +5845,7 @@
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9693,9 +9693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CN9" sqref="CN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11553,13 +11553,13 @@
         <v>45</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>185</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>185</v>
@@ -11598,25 +11598,25 @@
         <v>185</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>185</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>190</v>
@@ -11625,7 +11625,7 @@
         <v>45</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>47</v>
@@ -11633,65 +11633,173 @@
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
+      <c r="AM9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="BE9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="1"/>
-      <c r="BS9" s="1"/>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="1"/>
-      <c r="BV9" s="1"/>
-      <c r="BW9" s="1"/>
-      <c r="BX9" s="1"/>
-      <c r="BY9" s="1"/>
-      <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
-      <c r="CL9" s="1"/>
-      <c r="CM9" s="1"/>
-      <c r="CN9" s="1"/>
-      <c r="CO9" s="1"/>
+      <c r="BF9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CA9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CC9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CF9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CG9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CI9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CJ9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CM9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CN9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="CO9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="CP9" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="CQ9" s="8" t="s">
         <v>192</v>
@@ -11936,6 +12044,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -11943,15 +12060,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12172,19 +12280,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29415E7A-DB59-4C23-ADFF-6470EA012191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94A79B9-2F68-4965-87CB-7963C2C10170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -9694,8 +9694,8 @@
   <dimension ref="A1:DC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CN9" sqref="CN9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11532,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>185</v>
@@ -12044,15 +12044,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -12060,6 +12051,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12280,19 +12280,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Screening.xlsx
+++ b/Screening.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\CARES---Selenium-Automation-master_11\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94A79B9-2F68-4965-87CB-7963C2C10170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777C8FDE-E24E-4C46-86AC-4816F7DD4BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="8" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="18" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="TestScriptMasterSheet" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="475">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -98,6 +98,9 @@
     <t>testT2928</t>
   </si>
   <si>
+    <t>pomTest</t>
+  </si>
+  <si>
     <t>POM_ITERATION</t>
   </si>
   <si>
@@ -731,21 +734,27 @@
     <t>SEXATBIRTH</t>
   </si>
   <si>
+    <t>GENDER_IDENTITY</t>
+  </si>
+  <si>
     <t>NEWPERSON_BTN</t>
   </si>
   <si>
     <t>VALIDATEPERSON_NAME</t>
   </si>
   <si>
+    <t>SCR_PERSON_ID</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>test2922</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>ADDRESS_TYPE</t>
   </si>
   <si>
@@ -1070,7 +1079,7 @@
     <t>STAFF_PERSON</t>
   </si>
   <si>
-    <t>OTHER_STAFF_PERSON</t>
+    <t>OTHER_STAFF_PRESENT</t>
   </si>
   <si>
     <t>PARTICIPANT_TYPE</t>
@@ -1205,6 +1214,9 @@
     <t>Continue to Inquire</t>
   </si>
   <si>
+    <t>ClericalWorker1ContraCosta</t>
+  </si>
+  <si>
     <t>CONTACT_START_DATETIME</t>
   </si>
   <si>
@@ -1217,9 +1229,6 @@
     <t>OTHER_VERIFY</t>
   </si>
   <si>
-    <t>NARATIVE_VERIFY</t>
-  </si>
-  <si>
     <t>personName2</t>
   </si>
   <si>
@@ -1385,6 +1394,21 @@
     <t>Screening History</t>
   </si>
   <si>
+    <t>RECALL</t>
+  </si>
+  <si>
+    <t>SUBMIT_FOR_APPROVAL</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>autotext</t>
+  </si>
+  <si>
     <t>HISTORY_TAB</t>
   </si>
   <si>
@@ -1464,42 +1488,6 @@
   </si>
   <si>
     <t>REASSIGN_BTN</t>
-  </si>
-  <si>
-    <t>pomTest</t>
-  </si>
-  <si>
-    <t>RECALL</t>
-  </si>
-  <si>
-    <t>SUBMIT_FOR_APPROVAL</t>
-  </si>
-  <si>
-    <t>SUBMIT</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>autotext</t>
-  </si>
-  <si>
-    <t>GENDER_IDENTITY</t>
-  </si>
-  <si>
-    <t>SCP_PERSON_ID</t>
-  </si>
-  <si>
-    <t>SCP_ID1</t>
-  </si>
-  <si>
-    <t>SCP_ID2</t>
-  </si>
-  <si>
-    <t>SCP_ID3</t>
-  </si>
-  <si>
-    <t>SCP_ID4</t>
   </si>
 </sst>
 </file>
@@ -1961,13 +1949,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" activeCellId="1" sqref="A11 B20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2083,7 +2071,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>467</v>
+        <v>11</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2102,14 +2090,14 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="A16" sqref="A16:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
@@ -2128,80 +2116,80 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2215,25 +2203,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2247,25 +2235,25 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -2279,25 +2267,25 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2311,25 +2299,25 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -2343,17 +2331,17 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -2367,17 +2355,17 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2391,17 +2379,17 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -2415,17 +2403,17 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -2439,25 +2427,25 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -2471,25 +2459,25 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -2503,25 +2491,25 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -2535,25 +2523,25 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -2567,25 +2555,25 @@
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -2599,25 +2587,25 @@
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -2631,25 +2619,25 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -2663,25 +2651,25 @@
         <v>4</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2698,10 +2686,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -2712,40 +2700,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -2753,22 +2741,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2781,20 +2769,20 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -2805,28 +2793,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
-        <v>473</v>
+        <v>223</v>
       </c>
       <c r="H1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J1" t="s">
-        <v>474</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2838,25 +2826,22 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>475</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -2868,25 +2853,22 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>476</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -2898,25 +2880,22 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>477</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2928,51 +2907,48 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>478</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -2983,22 +2959,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -3009,48 +2985,48 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -3062,22 +3038,22 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -3089,22 +3065,22 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -3116,22 +3092,22 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -3143,22 +3119,22 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3185,103 +3161,103 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" t="s">
-        <v>121</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="R1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="S1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="V1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="W1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Y1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AA1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AB1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AE1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AF1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AH1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -3295,13 +3271,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -3315,13 +3291,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -3334,17 +3310,17 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L4" s="1">
         <v>97818</v>
@@ -3363,7 +3339,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="AI4" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -3382,17 +3358,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3404,88 +3380,88 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="F1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K1" t="s">
-        <v>251</v>
-      </c>
-      <c r="L1" t="s">
-        <v>252</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
@@ -3496,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -3516,8 +3492,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.453125" bestFit="1" customWidth="1"/>
@@ -3535,42 +3511,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -3583,16 +3559,16 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="7"/>
     </row>
@@ -3611,10 +3587,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
@@ -3622,10 +3598,10 @@
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
@@ -3639,52 +3615,52 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -3695,18 +3671,18 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -3720,7 +3696,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3780,13 +3756,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
@@ -3805,181 +3781,181 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="V1" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="W1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG1" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="AH1" s="6" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AI1" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL1" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AN1" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AO1" s="6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AQ1" s="6" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AZ1" s="6" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="BA1" s="6" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="BE1" s="5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="BG1" s="6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="BH1" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BI1" s="6" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.35">
@@ -4099,11 +4075,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D877FD9-7918-4D4A-A43E-1EACCDC3A2FF}">
   <dimension ref="A1:BC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="27.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="16" max="16" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -4113,163 +4094,163 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AD1" s="11" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG1" s="11" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AL1" s="11" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AR1" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AS1" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AU1" s="12" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AV1" s="11" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AW1" s="12" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AX1" s="12" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AY1" s="11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AZ1" s="12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="BA1" s="12" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="BB1" s="11" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="BC1" s="12" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.35">
@@ -4281,43 +4262,43 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -4349,28 +4330,28 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AX2" s="1"/>
       <c r="AY2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.35">
@@ -4384,46 +4365,46 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -4454,28 +4435,28 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.35">
@@ -4489,46 +4470,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -4559,28 +4540,28 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
       <c r="AT4" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AX4" s="1"/>
       <c r="AY4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.35">
@@ -4592,43 +4573,43 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="12"/>
@@ -4660,122 +4641,182 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
       <c r="AT5" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AV5" s="1"/>
       <c r="AW5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="8" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="I6" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="J6" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AU6" s="8" t="s">
-        <v>192</v>
-      </c>
+      <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="11"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -4798,7 +4839,9 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
-      <c r="AU7" s="12"/>
+      <c r="AU7" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
@@ -5844,42 +5887,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C4DF4-08BE-46FC-9EA9-D98E3DABA40A}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="26.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="23" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.453125" bestFit="1" customWidth="1"/>
@@ -5893,103 +5936,103 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>327</v>
-      </c>
       <c r="P1" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="R1" s="5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AE1" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AF1" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -6002,31 +6045,31 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -6050,7 +6093,7 @@
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -6064,105 +6107,105 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AC3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AF3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AG3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AH3" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AI3" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -6171,100 +6214,100 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
@@ -6278,34 +6321,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -6859,16 +6902,16 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
@@ -6883,25 +6926,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -6912,10 +6955,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -6926,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -6940,15 +6983,15 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -6962,15 +7005,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6984,10 +7027,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7001,10 +7044,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7015,10 +7058,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7032,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -7040,7 +7083,7 @@
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -7049,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -7057,7 +7100,7 @@
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -7066,17 +7109,17 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>467</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -7085,12 +7128,12 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -7109,16 +7152,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7130,31 +7173,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -7168,28 +7211,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -7206,28 +7249,28 @@
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -7244,17 +7287,17 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -7265,17 +7308,17 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -7293,20 +7336,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -7317,68 +7360,68 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -7387,16 +7430,16 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -7410,43 +7453,43 @@
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -7460,25 +7503,25 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -7492,41 +7535,41 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -7542,13 +7585,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7561,61 +7604,61 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="I1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="O1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="R1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="S1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="T1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="U1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -7623,37 +7666,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7672,18 +7715,18 @@
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.81640625" customWidth="1"/>
     <col min="11" max="12" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7694,46 +7737,46 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="I1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="J1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="O1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7747,43 +7790,43 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="14">
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7797,40 +7840,40 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7844,40 +7887,40 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7891,13 +7934,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7911,43 +7954,43 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7965,9 +8008,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.36328125" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -7978,25 +8021,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E1" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="F1" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="G1" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="H1" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="I1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8010,22 +8053,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -8043,8 +8086,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -8055,58 +8098,58 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="E1" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G1" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="J1" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="K1" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="L1" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="M1" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="N1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P1" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Q1" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="R1" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="S1" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="T1" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -8120,55 +8163,55 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -8182,55 +8225,55 @@
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -8243,12 +8286,12 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
@@ -8263,13 +8306,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8289,10 +8332,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -8306,10 +8349,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -8323,10 +8366,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -8340,15 +8383,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -8357,10 +8400,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -8379,8 +8422,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
@@ -8395,25 +8438,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8427,22 +8470,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -8457,22 +8500,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -8485,7 +8528,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8504,9 +8547,9 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -8521,22 +8564,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F1" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="G1" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="H1" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -8550,19 +8593,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -8576,19 +8619,19 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -8602,19 +8645,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -8626,16 +8669,16 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -8653,14 +8696,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8671,22 +8714,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -8700,19 +8743,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8731,13 +8774,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="26.90625" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.81640625" customWidth="1"/>
     <col min="10" max="10" width="25.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8749,28 +8792,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -8784,25 +8827,25 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8820,11 +8863,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -8835,25 +8878,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -8867,22 +8910,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8900,8 +8943,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -8914,36 +8957,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -8957,13 +9000,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -8977,13 +9020,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -8997,13 +9040,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9021,9 +9064,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.453125" customWidth="1"/>
@@ -9037,7 +9080,7 @@
     <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9048,52 +9091,52 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9107,16 +9150,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9130,16 +9173,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9153,16 +9196,16 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9176,18 +9219,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -9196,13 +9239,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -9220,34 +9263,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.08984375" customWidth="1"/>
-    <col min="12" max="12" width="28.90625" customWidth="1"/>
+    <col min="11" max="11" width="32.1796875" customWidth="1"/>
+    <col min="12" max="12" width="28.81640625" customWidth="1"/>
     <col min="13" max="13" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="110.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="110.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="22" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9259,94 +9302,94 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
@@ -9360,52 +9403,52 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T2" s="2"/>
     </row>
@@ -9420,94 +9463,94 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
@@ -9521,94 +9564,94 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
@@ -9622,49 +9665,49 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -9693,16 +9736,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9983CDEA-3A9D-43B3-BB0E-256E32F20C00}">
   <dimension ref="A1:DC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" customWidth="1"/>
     <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
@@ -9710,85 +9753,85 @@
     <col min="8" max="8" width="52" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
     <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.08984375" customWidth="1"/>
-    <col min="13" max="13" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.1796875" customWidth="1"/>
+    <col min="13" max="13" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.453125" customWidth="1"/>
-    <col min="20" max="20" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.54296875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="24" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="26.453125" customWidth="1"/>
     <col min="43" max="43" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="24" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="49" max="51" width="26.453125" customWidth="1"/>
     <col min="52" max="52" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="23.54296875" customWidth="1"/>
     <col min="54" max="54" width="38.453125" bestFit="1" customWidth="1"/>
     <col min="55" max="56" width="23.54296875" customWidth="1"/>
     <col min="57" max="57" width="26.453125" customWidth="1"/>
-    <col min="58" max="58" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="61" max="65" width="26.453125" customWidth="1"/>
-    <col min="66" max="66" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="69" max="71" width="28.36328125" customWidth="1"/>
+    <col min="68" max="68" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="69" max="71" width="28.453125" customWidth="1"/>
     <col min="72" max="72" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="28.36328125" customWidth="1"/>
-    <col min="74" max="74" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="75" max="77" width="28.36328125" customWidth="1"/>
-    <col min="78" max="78" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="28.453125" customWidth="1"/>
+    <col min="74" max="74" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="77" width="28.453125" customWidth="1"/>
+    <col min="78" max="78" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="22" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="31.54296875" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="22.54296875" customWidth="1"/>
     <col min="89" max="89" width="12" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="17" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="22.54296875" customWidth="1"/>
-    <col min="92" max="92" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="31.54296875" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="57.54296875" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:107" ht="14.5" x14ac:dyDescent="0.35">
@@ -9799,380 +9842,380 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AH1" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI1" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL1" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO1" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AP1" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AQ1" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AR1" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS1" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AT1" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AU1" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AV1" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AW1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AY1" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AZ1" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BA1" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BB1" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BD1" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BE1" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BF1" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BG1" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BH1" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BI1" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="BJ1" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="BK1" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BL1" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="BM1" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BN1" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BO1" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BP1" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BQ1" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BR1" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BS1" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BT1" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BU1" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BV1" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BW1" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BX1" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BY1" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BZ1" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CA1" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="CB1" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="CC1" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CD1" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="CE1" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CF1" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CG1" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="CH1" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="CI1" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="CJ1" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CK1" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CL1" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CM1" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CN1" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CO1" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CP1" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CQ1" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CR1" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:107" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB2" s="16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC2" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD2" s="16"/>
       <c r="AE2" s="16"/>
       <c r="AF2" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG2" s="16"/>
       <c r="AH2" s="16"/>
       <c r="AI2" s="16"/>
       <c r="AJ2" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK2" s="16"/>
       <c r="AL2" s="16"/>
@@ -10246,283 +10289,283 @@
         <v>1</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H3" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>190</v>
-      </c>
       <c r="AG3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ3" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AL3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AM3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AO3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AP3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AQ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AR3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AS3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AX3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AY3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AZ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BA3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BB3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BC3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BD3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BE3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BF3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BG3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BH3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BI3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BJ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BK3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BL3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BM3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BN3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BO3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BP3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BQ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BR3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BS3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BT3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BU3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BV3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BW3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BX3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BY3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BZ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CA3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CB3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CC3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CD3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CE3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CF3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CG3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CH3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CI3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CJ3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CK3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CL3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CM3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CN3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CO3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CP3" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CQ3" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR3" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CS3" s="19"/>
       <c r="CT3" s="19"/>
@@ -10547,283 +10590,283 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="AG4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ4" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AL4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AM4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AO4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AP4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AQ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AR4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AS4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AX4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AY4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AZ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BA4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BB4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BC4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BD4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BE4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BF4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BG4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BH4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BI4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BJ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BK4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BL4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BM4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BN4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BO4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BP4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BQ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BR4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BS4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BT4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BU4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BV4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BW4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BX4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BY4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BZ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CA4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CB4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CC4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CD4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CE4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CF4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CG4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CH4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CI4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CJ4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CK4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CL4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CM4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CN4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CO4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CP4" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CQ4" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR4" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CS4" s="1"/>
       <c r="CT4" s="1"/>
@@ -10848,103 +10891,103 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF5" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
@@ -10967,7 +11010,7 @@
       <c r="BC5" s="8"/>
       <c r="BD5" s="8"/>
       <c r="BE5" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BF5" s="8"/>
       <c r="BG5" s="8"/>
@@ -11007,10 +11050,10 @@
       <c r="CO5" s="8"/>
       <c r="CP5" s="8"/>
       <c r="CQ5" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR5" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11025,100 +11068,100 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF6" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ6" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
@@ -11141,7 +11184,7 @@
       <c r="BC6" s="8"/>
       <c r="BD6" s="8"/>
       <c r="BE6" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BF6" s="8"/>
       <c r="BG6" s="8"/>
@@ -11181,15 +11224,15 @@
       <c r="CO6" s="8"/>
       <c r="CP6" s="8"/>
       <c r="CQ6" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR6" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -11197,86 +11240,86 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK7" s="8"/>
       <c r="AL7" s="8"/>
@@ -11348,100 +11391,100 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -11465,7 +11508,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
@@ -11504,13 +11547,13 @@
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
       <c r="CP8" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CQ8" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR8" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CS8" s="1"/>
       <c r="CT8" s="1"/>
@@ -11532,280 +11575,172 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="AD9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
-      <c r="AM9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
       <c r="BE9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BO9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BS9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BT9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BU9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BV9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BW9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BX9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BY9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BZ9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CA9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CB9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CC9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CE9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CF9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CG9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CH9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CI9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CJ9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CK9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CL9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CM9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CN9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CO9" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
+      <c r="CO9" s="1"/>
       <c r="CP9" s="1" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="CQ9" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR9" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CS9" s="1"/>
       <c r="CT9" s="1"/>
@@ -11821,7 +11756,7 @@
     </row>
     <row r="10" spans="1:107" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -11830,92 +11765,92 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
@@ -11941,7 +11876,7 @@
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BF10" s="1"/>
       <c r="BG10" s="1"/>
@@ -11981,10 +11916,10 @@
       <c r="CO10" s="1"/>
       <c r="CP10" s="1"/>
       <c r="CQ10" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CR10" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CS10" s="1"/>
       <c r="CT10" s="1"/>
@@ -12044,6 +11979,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -12051,15 +11995,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12280,19 +12215,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
